--- a/config_4.13/by3dphb_config.xlsx
+++ b/config_4.13/by3dphb_config.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -744,7 +744,7 @@
         <v>-1</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>-1</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
